--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2513946.837806159</v>
+        <v>2595621.689840325</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261949</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9415414.229295814</v>
+        <v>9415398.341837259</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>83.70888068730565</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516666</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.2420339516666</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>69.06579040599269</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>24.89326496326815</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>132.5008957477091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>142.3870695882587</v>
+        <v>160.1989433021659</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>256.1684629670128</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>372.0396308464199</v>
       </c>
       <c r="G5" t="n">
-        <v>72.27712430632015</v>
+        <v>372.0396308464199</v>
       </c>
       <c r="H5" t="n">
-        <v>334.0905432484387</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264483</v>
+        <v>192.2558301280912</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922227</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291236</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161533</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.807634568886892</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663304</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078397</v>
+        <v>84.45800155129704</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896019</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537395</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9228757021759</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>102.0813684275799</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.37121764358501</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>204.2148137233244</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.55348041321415</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>279.4878588842146</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>37.19452077384803</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.91827500188584</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>94.69402002676061</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>173.2962846220705</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>110.1239851026829</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1765,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>37.36342890031278</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>177.4994303185152</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.46137625926941</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>73.628099082902</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>18.93216019968449</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>115.5269768002191</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.2174192181998</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>17.9335970670427</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>152.6276470398219</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.3232997295227</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>209.7181071548282</v>
       </c>
     </row>
     <row r="32">
@@ -3086,10 +3088,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>85.1607209033795</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>22.75152881020975</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>127.349791440055</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3481,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>26.97444673954864</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>24.29718497126799</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>89.84971271248617</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.9527187969213</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>99.43636052933105</v>
       </c>
       <c r="E46" t="n">
-        <v>41.51284162387385</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>641.5543613459222</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="C2" t="n">
-        <v>641.5543613459222</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="D2" t="n">
-        <v>556.9999364092498</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="E2" t="n">
-        <v>556.9999364092498</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="F2" t="n">
-        <v>291.0988920136271</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800421</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800421</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>330.254671414236</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098023</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885138</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806666</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>907.4554057415451</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>907.4554057415451</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U2" t="n">
-        <v>907.4554057415451</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="V2" t="n">
-        <v>907.4554057415451</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="W2" t="n">
-        <v>907.4554057415451</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="X2" t="n">
-        <v>907.4554057415451</v>
+        <v>323.2990948046596</v>
       </c>
       <c r="Y2" t="n">
-        <v>641.5543613459222</v>
+        <v>44.35312136793684</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.05936271613333</v>
+        <v>432.8092999397196</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613333</v>
+        <v>432.8092999397196</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613333</v>
+        <v>407.6645878556103</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613333</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>261.6628906109958</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>522.2725042231457</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360758</v>
+        <v>759.2151904085662</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285679</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U3" t="n">
-        <v>824.7478070488712</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="V3" t="n">
-        <v>690.9085184148216</v>
+        <v>601.0246369597876</v>
       </c>
       <c r="W3" t="n">
-        <v>436.6711616866201</v>
+        <v>601.0246369597876</v>
       </c>
       <c r="X3" t="n">
-        <v>228.8196614810873</v>
+        <v>601.0246369597876</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.05936271613333</v>
+        <v>601.0246369597876</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="C4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="D4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="E4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="F4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="G4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="H4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="I4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360295</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="X4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.68360465423048</v>
+        <v>37.1756025565036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1009.500488821559</v>
+        <v>975.5561925090583</v>
       </c>
       <c r="C5" t="n">
-        <v>640.5379718811469</v>
+        <v>975.5561925090583</v>
       </c>
       <c r="D5" t="n">
-        <v>640.5379718811469</v>
+        <v>975.5561925090583</v>
       </c>
       <c r="E5" t="n">
-        <v>640.5379718811469</v>
+        <v>975.5561925090583</v>
       </c>
       <c r="F5" t="n">
-        <v>633.5924711319434</v>
+        <v>599.7585855934825</v>
       </c>
       <c r="G5" t="n">
-        <v>560.5852748629331</v>
+        <v>223.9609786779068</v>
       </c>
       <c r="H5" t="n">
-        <v>223.12007966249</v>
+        <v>223.9609786779068</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153217</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931705</v>
+        <v>57.64391735380309</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817345</v>
+        <v>220.1747338456859</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923792</v>
+        <v>474.0852112039944</v>
       </c>
       <c r="M5" t="n">
-        <v>803.140442736564</v>
+        <v>773.2160860494116</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029476</v>
+        <v>1062.555213635716</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245505</v>
+        <v>1290.582309293122</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927374</v>
+        <v>1447.523776935873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576609</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="R5" t="n">
-        <v>1431.555163715778</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="S5" t="n">
-        <v>1232.525147827774</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="T5" t="n">
-        <v>1009.500488821559</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="U5" t="n">
-        <v>1009.500488821559</v>
+        <v>1234.312215708061</v>
       </c>
       <c r="V5" t="n">
-        <v>1009.500488821559</v>
+        <v>1234.312215708061</v>
       </c>
       <c r="W5" t="n">
-        <v>1009.500488821559</v>
+        <v>1234.312215708061</v>
       </c>
       <c r="X5" t="n">
-        <v>1009.500488821559</v>
+        <v>1234.312215708061</v>
       </c>
       <c r="Y5" t="n">
-        <v>1009.500488821559</v>
+        <v>1234.312215708061</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660.905191764886</v>
+        <v>279.1408968950973</v>
       </c>
       <c r="C6" t="n">
-        <v>656.0489952306568</v>
+        <v>279.1408968950973</v>
       </c>
       <c r="D6" t="n">
-        <v>507.1145855694056</v>
+        <v>279.1408968950973</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1145855694056</v>
+        <v>279.1408968950973</v>
       </c>
       <c r="F6" t="n">
-        <v>360.5800275962906</v>
+        <v>279.1408968950973</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1333405200616</v>
+        <v>140.6654910187795</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5083831172221</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153217</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="J6" t="n">
-        <v>56.56309157527201</v>
+        <v>52.67537262782795</v>
       </c>
       <c r="K6" t="n">
-        <v>56.56309157527201</v>
+        <v>218.4568186361402</v>
       </c>
       <c r="L6" t="n">
-        <v>346.9926440847833</v>
+        <v>502.7748277822755</v>
       </c>
       <c r="M6" t="n">
-        <v>730.5135358274939</v>
+        <v>871.0940623202312</v>
       </c>
       <c r="N6" t="n">
-        <v>1114.034427570205</v>
+        <v>1239.413296858187</v>
       </c>
       <c r="O6" t="n">
-        <v>1429.046266680793</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="P6" t="n">
-        <v>1549.579360576609</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576609</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697029</v>
+        <v>1402.847410707602</v>
       </c>
       <c r="S6" t="n">
-        <v>1297.911733212583</v>
+        <v>1234.17437210747</v>
       </c>
       <c r="T6" t="n">
-        <v>1096.870415481533</v>
+        <v>1033.017297458518</v>
       </c>
       <c r="U6" t="n">
-        <v>868.6654905298399</v>
+        <v>1033.017297458518</v>
       </c>
       <c r="V6" t="n">
-        <v>868.6654905298399</v>
+        <v>797.8651892267758</v>
       </c>
       <c r="W6" t="n">
-        <v>868.6654905298399</v>
+        <v>694.752695865584</v>
       </c>
       <c r="X6" t="n">
-        <v>868.6654905298399</v>
+        <v>486.9011956600512</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.905191764886</v>
+        <v>279.1408968950973</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.99158721153217</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="C7" t="n">
-        <v>30.99158721153217</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="D7" t="n">
-        <v>30.99158721153217</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="E7" t="n">
-        <v>30.99158721153217</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153217</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153217</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153217</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153217</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153217</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770176972</v>
+        <v>32.099901758881</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391371</v>
+        <v>90.61654790611161</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004494</v>
+        <v>162.7032697236672</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454166</v>
+        <v>238.51054684</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451008</v>
+        <v>292.514541505792</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179048</v>
+        <v>315.2036061918645</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179048</v>
+        <v>315.2036061918645</v>
       </c>
       <c r="R7" t="n">
-        <v>336.1816213179048</v>
+        <v>315.2036061918645</v>
       </c>
       <c r="S7" t="n">
-        <v>336.1816213179048</v>
+        <v>315.2036061918645</v>
       </c>
       <c r="T7" t="n">
-        <v>336.1816213179048</v>
+        <v>315.2036061918645</v>
       </c>
       <c r="U7" t="n">
-        <v>336.1816213179048</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="V7" t="n">
-        <v>336.1816213179048</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="W7" t="n">
-        <v>251.7841663550623</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="X7" t="n">
-        <v>251.7841663550623</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.99158721153217</v>
+        <v>108.9260165723449</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.991915879943</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
@@ -4805,22 +4807,22 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2604.550178544829</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944065</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641998</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598715</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323015</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323015</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323015</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323015</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323015</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323015</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782184</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>388.7731165986622</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323015</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323015</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323015</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323015</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323015</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5130,13 +5132,13 @@
         <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.9829531089974</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>527.0467701810906</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>527.0467701810906</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>527.0467701810906</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.423997082767</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.423997082767</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.6314179392372</v>
+        <v>609.3753482118777</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.0220331715246</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C16" t="n">
-        <v>565.0858502436178</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D16" t="n">
-        <v>565.0858502436178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>565.0858502436178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>984.7633980521477</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150548</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715246</v>
+        <v>509.2863307027308</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
@@ -5601,16 +5603,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>509.2863307027309</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C19" t="n">
-        <v>509.2863307027309</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1424.544453302446</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1200.759038091952</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>911.6303993055099</v>
       </c>
       <c r="V19" t="n">
-        <v>874.927113122792</v>
+        <v>911.6303993055099</v>
       </c>
       <c r="W19" t="n">
-        <v>585.5099430858313</v>
+        <v>622.2132292685493</v>
       </c>
       <c r="X19" t="n">
-        <v>585.5099430858313</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y19" t="n">
-        <v>585.5099430858313</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5750,25 +5752,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5829,22 +5831,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="23">
@@ -6023,7 +6025,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6069,13 +6071,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.849309876492</v>
+        <v>4037.655901217363</v>
       </c>
       <c r="C25" t="n">
-        <v>3575.849309876492</v>
+        <v>3868.719718289456</v>
       </c>
       <c r="D25" t="n">
-        <v>3575.849309876492</v>
+        <v>3718.60307887712</v>
       </c>
       <c r="E25" t="n">
-        <v>3575.849309876492</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F25" t="n">
-        <v>3575.849309876492</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G25" t="n">
-        <v>3575.849309876492</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
         <v>3459.155393916675</v>
@@ -6169,28 +6171,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>4550.5699552143</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>4326.784540003805</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>4037.655901217363</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>4037.655901217363</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>4037.655901217363</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.849309876492</v>
+        <v>4037.655901217363</v>
       </c>
       <c r="Y25" t="n">
-        <v>3575.849309876492</v>
+        <v>4037.655901217363</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,49 +6211,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6312,19 +6314,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>266.1532743881928</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881928</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,22 +6548,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>865.4928396191511</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C31" t="n">
-        <v>696.5566566912443</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D31" t="n">
-        <v>546.4400172789085</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
         <v>415.8104215925219</v>
@@ -6613,10 +6615,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347408</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.130855347408</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X31" t="n">
-        <v>1047.141304449391</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y31" t="n">
-        <v>1047.141304449391</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6697,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6704,13 +6706,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,19 +6721,19 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6789,10 +6791,10 @@
         <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>799.8610847926847</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C34" t="n">
-        <v>713.8401545872508</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D34" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1276.01491824092</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5095496229244</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y34" t="n">
-        <v>981.5095496229244</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6916,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,34 +6949,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>804.3537517307267</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>635.4175688028198</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>485.300929390484</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>337.3878358080909</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954967</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>986.0022165609664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.4640073588198</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="C40" t="n">
-        <v>124.4640073588198</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="D40" t="n">
-        <v>124.4640073588198</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="E40" t="n">
-        <v>124.4640073588198</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="F40" t="n">
-        <v>124.4640073588198</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7360,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>754.894602230607</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>526.9050513325897</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y40" t="n">
-        <v>306.1124721890595</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>503.0396462065435</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7597,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>731.0291971045608</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>503.0396462065435</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y43" t="n">
-        <v>503.0396462065435</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,10 +7648,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>454.2145238948139</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="C46" t="n">
-        <v>454.2145238948139</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="D46" t="n">
-        <v>454.2145238948139</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W46" t="n">
-        <v>675.007103038344</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X46" t="n">
-        <v>675.007103038344</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y46" t="n">
-        <v>454.2145238948139</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093848</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>197.5393732613981</v>
+        <v>331.5199135162567</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>92.41814909163797</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184943</v>
+        <v>450.1033532835722</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5759018009034</v>
+        <v>437.6152809470448</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>333.6909507466028</v>
       </c>
       <c r="P6" t="n">
-        <v>202.0096259658581</v>
+        <v>85.68821697936232</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.0744641817188</v>
+        <v>107.7037345247347</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914202</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8778,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>29.47535963978233</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>297.2466435761025</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>50.62661940943616</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9717,16 +9719,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>360.5026862907255</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,25 +10667,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,25 +11381,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6.535695559866753</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>35.29706292024834</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.0576191226185</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>108.7379220800622</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.3706039226679</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>124.2927109007013</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>160.8998199822528</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>33.38685156731698</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0.7033907654034124</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>130.6818759511696</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.8953512967691</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>17.11066291704648</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>8.866546197266615</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>82.08610019524833</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>198.7960322481795</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>18.07125658287623</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5191217238289</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>124.6166433962681</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>56.584249934083</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25837,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>48.75693659211581</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>49.1791124888813</v>
       </c>
       <c r="E46" t="n">
-        <v>104.9211210226953</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>846183.8629891925</v>
+        <v>846219.7371469308</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>846609.7149373458</v>
+        <v>846555.8828564</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717127</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982126</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="H2" t="n">
         <v>586543.5896065633</v>
       </c>
-      <c r="F2" t="n">
-        <v>586543.5896065634</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065633</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065632</v>
-      </c>
       <c r="I2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.589606563</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.589606563</v>
       </c>
       <c r="N2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300958</v>
+        <v>106137.1517703813</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133529</v>
+        <v>316711.9424252133</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124982</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414772</v>
+        <v>24677.24609313358</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.8926617996</v>
+        <v>76496.15793817196</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296088.6190402466</v>
+        <v>291749.0011542653</v>
       </c>
       <c r="C4" t="n">
-        <v>256508.6452813002</v>
+        <v>261372.5469563276</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
@@ -26439,7 +26441,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26451,10 +26453,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683333</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267149</v>
+        <v>58810.42201485697</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26503,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159163.8460761832</v>
+        <v>146557.6052803545</v>
       </c>
       <c r="C6" t="n">
-        <v>160999.3246641449</v>
+        <v>189461.2066566467</v>
       </c>
       <c r="D6" t="n">
-        <v>66667.48413492588</v>
+        <v>50577.4391230655</v>
       </c>
       <c r="E6" t="n">
-        <v>-52778.38040592051</v>
+        <v>-52778.3804059204</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709762</v>
+        <v>472381.6560709756</v>
       </c>
       <c r="G6" t="n">
+        <v>472381.6560709757</v>
+      </c>
+      <c r="H6" t="n">
         <v>472381.6560709761</v>
       </c>
-      <c r="H6" t="n">
-        <v>472381.6560709759</v>
-      </c>
       <c r="I6" t="n">
-        <v>472381.6560709759</v>
+        <v>472381.6560709757</v>
       </c>
       <c r="J6" t="n">
-        <v>403505.9573397258</v>
+        <v>400126.9611998365</v>
       </c>
       <c r="K6" t="n">
-        <v>440428.6966468281</v>
+        <v>447704.4099778422</v>
       </c>
       <c r="L6" t="n">
-        <v>399771.7634091763</v>
+        <v>395885.4981328039</v>
       </c>
       <c r="M6" t="n">
-        <v>337580.6408371386</v>
+        <v>337580.6408371384</v>
       </c>
       <c r="N6" t="n">
         <v>472381.6560709757</v>
       </c>
       <c r="O6" t="n">
-        <v>472381.6560709757</v>
+        <v>472381.6560709756</v>
       </c>
       <c r="P6" t="n">
-        <v>472381.6560709757</v>
+        <v>472381.6560709761</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792223</v>
+        <v>117.5602045593872</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441522</v>
+        <v>372.0396308464199</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>107.765027492433</v>
+        <v>82.53894384026182</v>
       </c>
       <c r="D3" t="n">
-        <v>246.965254037864</v>
+        <v>260.1834596576995</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924856</v>
+        <v>95.88311714406444</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104034</v>
+        <v>302.2476419081357</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516665</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924859</v>
+        <v>95.88311714406444</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104034</v>
+        <v>302.2476419081357</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924856</v>
+        <v>95.88311714406444</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104034</v>
+        <v>302.2476419081357</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>270.9741609333773</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900448</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521648</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>182.2685993828186</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>122.5518006013706</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>100.2996914017162</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>144.1359287483323</v>
+        <v>126.3240550344251</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>126.5653786964678</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>34.83641489529151</v>
       </c>
       <c r="G5" t="n">
-        <v>342.4998708563356</v>
+        <v>42.79050283129045</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385221</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409306</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658049</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3035935196382</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,16 +27697,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>167.9008644194288</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281895</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,16 +27751,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>149.6136147333397</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7551494384634</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.1304301278448</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>148.35842606049</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300373</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463182</v>
+        <v>68.41045236322692</v>
       </c>
       <c r="R7" t="n">
-        <v>166.6896206108345</v>
+        <v>167.7613787255182</v>
       </c>
       <c r="S7" t="n">
-        <v>219.9067257039629</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>226.9379524973924</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3061659063093</v>
+        <v>82.09265233435735</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>202.9695179233769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>85.78503288679298</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>179.2537995838098</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>122.3915272571651</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>130.3410854313237</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29326,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887678</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034957</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760343</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324493</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5997362345548</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895154</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019311</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841718</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060769</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679517</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125436</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246498</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750212</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688213</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430018</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418792</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104019</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210532</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605564</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523841</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047526</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>2.93401765828132</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166679</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471354</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988658</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847948</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150827</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131885</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705187</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473114</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750018</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792852</v>
+        <v>0.4726038374246717</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328481</v>
+        <v>4.84005405002542</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395766</v>
+        <v>18.22005944231467</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873878</v>
+        <v>40.11165994662226</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918693</v>
+        <v>60.11698038480862</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887488</v>
+        <v>74.58043007439393</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684977837</v>
+        <v>82.98509856819493</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876014</v>
+        <v>84.32788422127778</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129424</v>
+        <v>79.62842981288621</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446188</v>
+        <v>67.96102257646461</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629745</v>
+        <v>51.03589764869354</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892693</v>
+        <v>29.68720080262755</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712172</v>
+        <v>10.76945994531472</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978072</v>
+        <v>2.068823298326501</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834281</v>
+        <v>0.03780830699397372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439876</v>
+        <v>0.2528653456560403</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685354</v>
+        <v>2.442146890941232</v>
       </c>
       <c r="I6" t="n">
-        <v>9.68500490478203</v>
+        <v>8.706109488596125</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387385</v>
+        <v>23.89022987182792</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272102</v>
+        <v>40.83220803078262</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945661</v>
+        <v>54.90394270483455</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767615</v>
+        <v>64.070311484866</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658211</v>
+        <v>65.76606198270849</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709691</v>
+        <v>60.16309827106674</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323567</v>
+        <v>48.28619043496791</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.9073099043027</v>
+        <v>32.27803956128683</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185917</v>
+        <v>15.69983260134609</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614235907</v>
+        <v>4.696862889707588</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082125</v>
+        <v>1.019224792359215</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894656</v>
+        <v>0.01663587800368687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953189</v>
+        <v>0.2119938115005342</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594746</v>
+        <v>1.884817705886569</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768319</v>
+        <v>6.375232076761521</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366904</v>
+        <v>14.98796247308777</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672886</v>
+        <v>24.62982646342569</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821314</v>
+        <v>31.51769812072488</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344803</v>
+        <v>33.23099356094283</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437459</v>
+        <v>32.44083480898632</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715654</v>
+        <v>29.96436164736643</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925201</v>
+        <v>25.63968789275551</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706257</v>
+        <v>17.75159088846746</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633497</v>
+        <v>9.532012651651289</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009329</v>
+        <v>3.694473969513854</v>
       </c>
       <c r="T7" t="n">
-        <v>1.00763693088909</v>
+        <v>0.9057917400477368</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156286</v>
+        <v>0.01156329880912006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194291</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894758</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>79.07191193225269</v>
+        <v>219.7699536912575</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178749</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082925</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507654</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
-        <v>30.4508996191905</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025373</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412626</v>
+        <v>28.16237059200974</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953711</v>
+        <v>164.1725419109928</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693381</v>
+        <v>256.4752296548571</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153381</v>
+        <v>302.1523988337547</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241534</v>
+        <v>292.261745036671</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323529</v>
+        <v>230.3303996539448</v>
       </c>
       <c r="P5" t="n">
-        <v>166.168119880675</v>
+        <v>158.5267349926777</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175265</v>
+        <v>41.04519843414874</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.829802387616</v>
+        <v>23.14363854557006</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690022</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530416</v>
+        <v>287.1899082284195</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3948401441522</v>
+        <v>372.0396308464199</v>
       </c>
       <c r="N6" t="n">
-        <v>387.3948401441522</v>
+        <v>372.0396308464199</v>
       </c>
       <c r="O6" t="n">
-        <v>318.193776879382</v>
+        <v>251.2578045732251</v>
       </c>
       <c r="P6" t="n">
-        <v>121.7505998947635</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846007</v>
+        <v>2.360334637542842</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852928</v>
+        <v>59.10772338104102</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528861</v>
+        <v>72.81487052278342</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360319</v>
+        <v>76.57300718821492</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119621</v>
+        <v>54.54948956140611</v>
       </c>
       <c r="P7" t="n">
-        <v>25.8011161341455</v>
+        <v>22.918247157649</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047531</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>630.4412169741155</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35969,7 +35971,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
@@ -35981,7 +35983,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>201.2020579973754</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36212,10 +36214,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36437,16 +36439,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36680,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>499.1748421909892</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>451.7807101798181</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -36929,10 +36931,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>693.6972596887384</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37385,25 +37387,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2595621.689840325</v>
+        <v>2588448.40113004</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702199</v>
+        <v>2346514.7357022</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>69.06579040599269</v>
+        <v>155.3361305180218</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.89326496326815</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>167.0005214603119</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>256.1684629670128</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464199</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280912</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>101.6004732594268</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.17339989484613</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129704</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>102.0813684275799</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>24.38283354139005</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358501</v>
+        <v>78.37121764358477</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>204.2148137233244</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>202.8465275956994</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>37.19452077384803</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>44.91827500188584</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.2962846220705</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.7935996261252</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>177.4994303185152</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>199.8217265445594</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>80.3444240478894</v>
       </c>
       <c r="S19" t="n">
-        <v>73.628099082902</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.93216019968449</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>104.6354350586182</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>38.02006127926898</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.2174192181998</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>17.9335970670427</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>79.7401864962067</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.7181071548282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>22.75152881020975</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>127.349791440055</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>218.7507917565099</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>24.29718497126799</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>176.9527187969213</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>99.43636052933105</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.35312136793684</v>
+        <v>515.103310552464</v>
       </c>
       <c r="C2" t="n">
-        <v>44.35312136793684</v>
+        <v>515.103310552464</v>
       </c>
       <c r="D2" t="n">
-        <v>44.35312136793684</v>
+        <v>515.103310552464</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35312136793684</v>
+        <v>515.103310552464</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873336</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4333,19 +4333,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4363,19 +4363,19 @@
         <v>672.0084928939002</v>
       </c>
       <c r="U2" t="n">
-        <v>602.2450682413823</v>
+        <v>515.103310552464</v>
       </c>
       <c r="V2" t="n">
-        <v>602.2450682413823</v>
+        <v>515.103310552464</v>
       </c>
       <c r="W2" t="n">
-        <v>602.2450682413823</v>
+        <v>515.103310552464</v>
       </c>
       <c r="X2" t="n">
-        <v>323.2990948046596</v>
+        <v>515.103310552464</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.35312136793684</v>
+        <v>515.103310552464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>432.8092999397196</v>
+        <v>327.864534074759</v>
       </c>
       <c r="C3" t="n">
-        <v>432.8092999397196</v>
+        <v>327.864534074759</v>
       </c>
       <c r="D3" t="n">
-        <v>407.6645878556103</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E3" t="n">
-        <v>248.4271328501548</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>248.4271328501548</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4412,19 +4412,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618844</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>268.2479876888894</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>541.6429362542212</v>
+        <v>679.042797994484</v>
       </c>
       <c r="N3" t="n">
-        <v>759.2151904085662</v>
+        <v>679.042797994484</v>
       </c>
       <c r="O3" t="n">
-        <v>1025.71200399185</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>836.1767451915302</v>
+        <v>763.9346466461441</v>
       </c>
       <c r="U3" t="n">
-        <v>836.1767451915302</v>
+        <v>535.7160342802918</v>
       </c>
       <c r="V3" t="n">
-        <v>601.0246369597876</v>
+        <v>535.7160342802918</v>
       </c>
       <c r="W3" t="n">
-        <v>601.0246369597876</v>
+        <v>535.7160342802918</v>
       </c>
       <c r="X3" t="n">
-        <v>601.0246369597876</v>
+        <v>327.864534074759</v>
       </c>
       <c r="Y3" t="n">
-        <v>601.0246369597876</v>
+        <v>327.864534074759</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618844</v>
@@ -4518,22 +4518,22 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.5561925090583</v>
+        <v>778.9168197718677</v>
       </c>
       <c r="C5" t="n">
-        <v>975.5561925090583</v>
+        <v>409.954302831456</v>
       </c>
       <c r="D5" t="n">
-        <v>975.5561925090583</v>
+        <v>51.68860422470549</v>
       </c>
       <c r="E5" t="n">
-        <v>975.5561925090583</v>
+        <v>51.68860422470549</v>
       </c>
       <c r="F5" t="n">
-        <v>599.7585855934825</v>
+        <v>44.74310347550202</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779068</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779068</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771359</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380309</v>
+        <v>57.643917353804</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456859</v>
+        <v>220.1747338456879</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039944</v>
+        <v>474.0852112039976</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494116</v>
+        <v>773.2160860494159</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635716</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293122</v>
+        <v>1290.582309293128</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935873</v>
+        <v>1447.52377693588</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.15852338568</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.15852338568</v>
+        <v>1385.5317827196</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.15852338568</v>
+        <v>1385.5317827196</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.15852338568</v>
+        <v>1385.5317827196</v>
       </c>
       <c r="U5" t="n">
-        <v>1234.312215708061</v>
+        <v>1131.685475041982</v>
       </c>
       <c r="V5" t="n">
-        <v>1234.312215708061</v>
+        <v>1131.685475041982</v>
       </c>
       <c r="W5" t="n">
-        <v>1234.312215708061</v>
+        <v>778.9168197718677</v>
       </c>
       <c r="X5" t="n">
-        <v>1234.312215708061</v>
+        <v>778.9168197718677</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.312215708061</v>
+        <v>778.9168197718677</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279.1408968950973</v>
+        <v>414.9419224351892</v>
       </c>
       <c r="C6" t="n">
-        <v>279.1408968950973</v>
+        <v>240.4888931540621</v>
       </c>
       <c r="D6" t="n">
-        <v>279.1408968950973</v>
+        <v>91.55448349281087</v>
       </c>
       <c r="E6" t="n">
-        <v>279.1408968950973</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="F6" t="n">
-        <v>279.1408968950973</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="G6" t="n">
-        <v>140.6654910187795</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771359</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771359</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782795</v>
+        <v>52.67537262782849</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361402</v>
+        <v>218.4568186361413</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822755</v>
+        <v>502.7748277822775</v>
       </c>
       <c r="M6" t="n">
-        <v>871.0940623202312</v>
+        <v>848.0470181903954</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.413296858187</v>
+        <v>848.0470181903954</v>
       </c>
       <c r="O6" t="n">
-        <v>1488.15852338568</v>
+        <v>1156.361899562715</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.15852338568</v>
+        <v>1386.808705706684</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.15852338568</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707602</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.17437210747</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458518</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="U6" t="n">
-        <v>1033.017297458518</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="V6" t="n">
-        <v>797.8651892267758</v>
+        <v>1253.006415153945</v>
       </c>
       <c r="W6" t="n">
-        <v>694.752695865584</v>
+        <v>998.7690584257439</v>
       </c>
       <c r="X6" t="n">
-        <v>486.9011956600512</v>
+        <v>790.917558220211</v>
       </c>
       <c r="Y6" t="n">
-        <v>279.1408968950973</v>
+        <v>583.1572594552572</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9260165723449</v>
+        <v>133.5551413616277</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9260165723449</v>
+        <v>133.5551413616277</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9260165723449</v>
+        <v>133.5551413616277</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9260165723449</v>
+        <v>108.9260165723448</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9260165723449</v>
+        <v>108.9260165723448</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9260165723449</v>
+        <v>108.9260165723448</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9260165723449</v>
+        <v>108.9260165723448</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723449</v>
+        <v>108.9260165723448</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771359</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="K7" t="n">
-        <v>32.099901758881</v>
+        <v>32.09990175888156</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611161</v>
+        <v>90.61654790611266</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236672</v>
+        <v>162.7032697236688</v>
       </c>
       <c r="N7" t="n">
-        <v>238.51054684</v>
+        <v>238.510546840002</v>
       </c>
       <c r="O7" t="n">
-        <v>292.514541505792</v>
+        <v>292.5145415057945</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918645</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918645</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918645</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918645</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918645</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9260165723449</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9260165723449</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9260165723449</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9260165723449</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9260165723449</v>
+        <v>315.2036061918674</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117927</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2604.550178544829</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2350.78839318292</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.78839318292</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675914</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417901</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.0633493392342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>257.0633493392342</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>257.0633493392342</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>257.0633493392342</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>257.0633493392342</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,10 +5059,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1302.911127126629</v>
@@ -5138,7 +5138,7 @@
         <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.25999687553</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1324.377281036564</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>1035.248642250122</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488384</v>
+        <v>1035.248642250122</v>
       </c>
       <c r="W13" t="n">
-        <v>609.3753482118777</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="X13" t="n">
-        <v>609.3753482118777</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y13" t="n">
-        <v>609.3753482118777</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1427.741252113634</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509.2863307027308</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>984.7633980521477</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>730.0789098462609</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W16" t="n">
-        <v>730.0789098462609</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X16" t="n">
-        <v>730.0789098462609</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y16" t="n">
-        <v>509.2863307027308</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,16 +5500,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1417.760286671145</v>
       </c>
       <c r="S19" t="n">
-        <v>1424.544453302446</v>
+        <v>1217.840276586698</v>
       </c>
       <c r="T19" t="n">
-        <v>1200.759038091952</v>
+        <v>994.0548613762035</v>
       </c>
       <c r="U19" t="n">
-        <v>911.6303993055099</v>
+        <v>704.9262225897617</v>
       </c>
       <c r="V19" t="n">
-        <v>911.6303993055099</v>
+        <v>704.9262225897617</v>
       </c>
       <c r="W19" t="n">
-        <v>622.2132292685493</v>
+        <v>415.509052552801</v>
       </c>
       <c r="X19" t="n">
-        <v>394.223678370532</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.223678370532</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5749,49 +5749,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>462.7283310300498</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>677.4616523829103</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C22" t="n">
-        <v>677.4616523829103</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705745</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705745</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>696.5850465240057</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.5850465240057</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,13 +5974,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6031,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4037.655901217363</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>3868.719718289456</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>3718.60307887712</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>3570.689985294727</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294727</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4550.5699552143</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.784540003805</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4037.655901217363</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>4037.655901217363</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>4037.655901217363</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X25" t="n">
-        <v>4037.655901217363</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y25" t="n">
-        <v>4037.655901217363</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
     <row r="26">
@@ -6229,31 +6229,31 @@
         <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2449295548433</v>
+        <v>475.7924673804761</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2449295548433</v>
+        <v>475.7924673804761</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>325.6758279681403</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>177.7627343857472</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>177.7627343857472</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6384,7 +6384,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X28" t="n">
-        <v>665.6859735286132</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.8933943850831</v>
+        <v>475.7924673804761</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,19 +6478,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>735.0407559057232</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>809.2953582963255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>809.2953582963255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6700,40 +6700,40 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1646.27469227828</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O33" t="n">
-        <v>1925.814757496977</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6858,7 +6858,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1276.01491824092</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>986.8862794544777</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>986.8862794544777</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>986.8862794544777</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>986.8862794544777</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.0937003109476</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,13 +6916,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6934,22 +6934,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,22 +6961,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>804.3537517307267</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C37" t="n">
-        <v>635.4175688028198</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>485.300929390484</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>337.3878358080909</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>986.0022165609664</v>
+        <v>765.0418208473205</v>
       </c>
       <c r="W37" t="n">
-        <v>986.0022165609664</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X37" t="n">
-        <v>986.0022165609664</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y37" t="n">
-        <v>986.0022165609664</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="38">
@@ -7201,19 +7201,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.7597025423748</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>121.7597025423748</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D40" t="n">
-        <v>121.7597025423748</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E40" t="n">
-        <v>121.7597025423748</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F40" t="n">
-        <v>121.7597025423748</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>121.7597025423748</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>531.3977182706318</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X40" t="n">
-        <v>303.4081673726145</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y40" t="n">
-        <v>303.4081673726145</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7426,7 +7426,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7438,19 +7438,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028587</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>486.9458535317229</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2413.343925613455</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>720.4504516500522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>331.5199135162567</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>275.9716853542989</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835722</v>
+        <v>426.8235107281795</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470448</v>
+        <v>65.5756501006238</v>
       </c>
       <c r="O6" t="n">
-        <v>333.6909507466028</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>85.68821697936232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247347</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.47535963978233</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>297.2466435761025</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>199.6230805871088</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>62.79465928983183</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>50.62661940943616</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>165.9802687929762</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>202.5230052237938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>199.623080587109</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>124.3400780863228</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.535695559866753</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>48.75396143226402</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>108.7379220800622</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>52.3159167792686</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>29.6199283559034</v>
       </c>
       <c r="S19" t="n">
-        <v>124.2927109007013</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>160.8998199822528</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>44.27839330891797</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>141.8119189026683</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7033907654034124</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>130.6818759511696</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>86.75338196717088</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.866546197266615</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>198.7960322481795</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>18.07125658287623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>33.38685156731813</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>124.6166433962681</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>48.75693659211581</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>49.1791124888813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>803444.9333717127</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065629</v>
@@ -26331,31 +26331,31 @@
         <v>586543.589606563</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.589606563</v>
       </c>
       <c r="M2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="N2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="O2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>586543.5896065629</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703813</v>
+        <v>106137.1517703837</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252133</v>
+        <v>316711.9424252111</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>72254.69487113939</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313358</v>
+        <v>24677.24609313406</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817196</v>
+        <v>76496.15793817144</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26420,7 +26420,7 @@
         <v>291749.0011542653</v>
       </c>
       <c r="C4" t="n">
-        <v>261372.5469563276</v>
+        <v>261372.5469563269</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
@@ -26441,7 +26441,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26450,13 +26450,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,37 +26472,37 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485697</v>
+        <v>58810.42201485713</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146557.6052803545</v>
+        <v>146557.6052803543</v>
       </c>
       <c r="C6" t="n">
-        <v>189461.2066566467</v>
+        <v>189461.2066566445</v>
       </c>
       <c r="D6" t="n">
-        <v>50577.4391230655</v>
+        <v>50577.43912306748</v>
       </c>
       <c r="E6" t="n">
-        <v>-52778.3804059204</v>
+        <v>-53752.97166564179</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.0648112539</v>
       </c>
       <c r="G6" t="n">
-        <v>472381.6560709757</v>
+        <v>471407.064811254</v>
       </c>
       <c r="H6" t="n">
-        <v>472381.6560709761</v>
+        <v>471407.0648112539</v>
       </c>
       <c r="I6" t="n">
-        <v>472381.6560709757</v>
+        <v>471407.0648112538</v>
       </c>
       <c r="J6" t="n">
-        <v>400126.9611998365</v>
+        <v>399152.3699401147</v>
       </c>
       <c r="K6" t="n">
-        <v>447704.4099778422</v>
+        <v>446729.81871812</v>
       </c>
       <c r="L6" t="n">
-        <v>395885.4981328039</v>
+        <v>394910.9068730825</v>
       </c>
       <c r="M6" t="n">
-        <v>337580.6408371384</v>
+        <v>336606.0495774168</v>
       </c>
       <c r="N6" t="n">
-        <v>472381.6560709757</v>
+        <v>471407.0648112543</v>
       </c>
       <c r="O6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.064811254</v>
       </c>
       <c r="P6" t="n">
-        <v>472381.6560709761</v>
+        <v>471407.0648112539</v>
       </c>
     </row>
   </sheetData>
@@ -26740,37 +26740,37 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593872</v>
+        <v>117.560204559389</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464199</v>
+        <v>372.039630846422</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026182</v>
+        <v>82.53894384026364</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576995</v>
+        <v>260.1834596576977</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406444</v>
+        <v>95.88311714406655</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081357</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023559</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406444</v>
+        <v>95.88311714406632</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081357</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406444</v>
+        <v>95.88311714406655</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081357</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>182.2685993828186</v>
+        <v>95.99825927078942</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>122.5518006013706</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>32.86057951185998</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.3240550344251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126.5653786964678</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489529151</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283129045</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385221</v>
+        <v>18.58144387909485</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409306</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658049</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>96.4716805605548</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281895</v>
+        <v>80.69052336281882</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.4580015512968</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -27757,7 +27757,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>149.6136147333397</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>122.0511291051791</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322692</v>
+        <v>68.41045236322665</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255182</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882338</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>82.09265233435735</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>162.4263641753082</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>179.2537995838098</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>122.3915272571651</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.005818063233699e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246717</v>
+        <v>0.4726038374246789</v>
       </c>
       <c r="H5" t="n">
-        <v>4.84005405002542</v>
+        <v>4.840054050025494</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231467</v>
+        <v>18.22005944231495</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662226</v>
+        <v>40.11165994662288</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480862</v>
+        <v>60.11698038480955</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439393</v>
+        <v>74.58043007439508</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819493</v>
+        <v>82.98509856819622</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127778</v>
+        <v>84.32788422127909</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288621</v>
+        <v>79.62842981288743</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646461</v>
+        <v>67.96102257646567</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869354</v>
+        <v>51.03589764869434</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262755</v>
+        <v>29.68720080262802</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531472</v>
+        <v>10.76945994531488</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326501</v>
+        <v>2.068823298326533</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397372</v>
+        <v>0.03780830699397431</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560403</v>
+        <v>0.2528653456560442</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941232</v>
+        <v>2.44214689094127</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596125</v>
+        <v>8.70610948859626</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182792</v>
+        <v>23.89022987182829</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078262</v>
+        <v>40.83220803078325</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483455</v>
+        <v>54.90394270483539</v>
       </c>
       <c r="M6" t="n">
-        <v>64.070311484866</v>
+        <v>64.07031148486699</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270849</v>
+        <v>65.7660619827095</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106674</v>
+        <v>60.16309827106767</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496791</v>
+        <v>48.28619043496866</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128683</v>
+        <v>32.27803956128733</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134609</v>
+        <v>15.69983260134633</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707588</v>
+        <v>4.696862889707661</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359215</v>
+        <v>1.019224792359231</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368687</v>
+        <v>0.01663587800368713</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005342</v>
+        <v>0.2119938115005375</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886569</v>
+        <v>1.884817705886598</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761521</v>
+        <v>6.37523207676162</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308777</v>
+        <v>14.987962473088</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342569</v>
+        <v>24.62982646342608</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072488</v>
+        <v>31.51769812072537</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094283</v>
+        <v>33.23099356094334</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898632</v>
+        <v>32.44083480898681</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736643</v>
+        <v>29.96436164736689</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275551</v>
+        <v>25.63968789275591</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846746</v>
+        <v>17.75159088846774</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651289</v>
+        <v>9.532012651651437</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513854</v>
+        <v>3.694473969513911</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477368</v>
+        <v>0.9057917400477508</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912006</v>
+        <v>0.01156329880912024</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34789,13 +34789,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>219.7699536912575</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>151.298066666745</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>79.71116244199196</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059200974</v>
+        <v>28.16237059201036</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109928</v>
+        <v>164.1725419109937</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548571</v>
+        <v>256.4752296548583</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337547</v>
+        <v>302.152398833756</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036671</v>
+        <v>292.2617450366723</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539448</v>
+        <v>230.3303996539461</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926777</v>
+        <v>158.5267349926788</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414874</v>
+        <v>41.04519843414953</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557006</v>
+        <v>23.14363854557043</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690022</v>
+        <v>167.4560060690029</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284195</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464199</v>
+        <v>348.7597882910282</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464199</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>251.2578045732251</v>
+        <v>311.4291731033528</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>232.7745516605756</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111149</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637542842</v>
+        <v>2.360334637543225</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104102</v>
+        <v>59.10772338104151</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278342</v>
+        <v>72.81487052278393</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821492</v>
+        <v>76.5730071882154</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140611</v>
+        <v>54.54948956140656</v>
       </c>
       <c r="P7" t="n">
-        <v>22.918247157649</v>
+        <v>22.91824715764939</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.4883924248565</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>630.4412169741155</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>510.0474576375751</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>269.8880742213565</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>201.2020579973754</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>499.1748421909892</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>451.7807101798181</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>406.7164955186337</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38110,16 +38110,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>212.353110871397</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
